--- a/input/Financial Statement AAPL/Income Statements All-AAPL.xlsx
+++ b/input/Financial Statement AAPL/Income Statements All-AAPL.xlsx
@@ -7,26 +7,30 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Year Ended 2017" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Q1 2018 (2017)" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Q2 2018" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Q3 2018" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Year Ended 2018" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Q1 2019 (2018)" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Q2 2019" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Q3 2019" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Year Ended 2019" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Q1 2020 (2019)" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Q2 2020" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Q3 2020" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="Year Ended 2020" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="Q1 2021 (2020)" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="Q2 2021" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="Q3 2021" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="Year Ended 2021" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="Q1 2022 (2021)" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="Q2 2022" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="Q3 2022" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="Year Ended 2016" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Q1 2017 (2016)" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Q2 2017" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Q3 2017" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Year Ended 2017" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Q1 2018 (2017)" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Q2 2018" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Q3 2018" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Year Ended 2018" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Q1 2019 (2018)" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Q2 2019" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Q3 2019" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Year Ended 2019" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Q1 2020 (2019)" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Q2 2020" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Q3 2020" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="Year Ended 2020" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="Q1 2021 (2020)" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="Q2 2021" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="Q3 2021" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="Year Ended 2021" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="Q1 2022 (2021)" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="Q2 2022" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="Q3 2022" sheetId="24" state="visible" r:id="rId24"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -460,7 +464,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Sep. 30, 2017</t>
+          <t>Sep. 24, 2016</t>
         </is>
       </c>
     </row>
@@ -479,7 +483,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>229234</v>
+        <v>215639</v>
       </c>
     </row>
     <row r="4">
@@ -489,7 +493,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>141048</v>
+        <v>131376</v>
       </c>
     </row>
     <row r="5">
@@ -499,7 +503,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>88186</v>
+        <v>84263</v>
       </c>
     </row>
     <row r="6">
@@ -517,7 +521,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11581</v>
+        <v>10045</v>
       </c>
     </row>
     <row r="8">
@@ -527,7 +531,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15261</v>
+        <v>14194</v>
       </c>
     </row>
     <row r="9">
@@ -537,7 +541,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>26842</v>
+        <v>24239</v>
       </c>
     </row>
     <row r="10">
@@ -547,7 +551,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>61344</v>
+        <v>60024</v>
       </c>
     </row>
     <row r="11">
@@ -557,7 +561,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2745</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="12">
@@ -567,7 +571,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>64089</v>
+        <v>61372</v>
       </c>
     </row>
     <row r="13">
@@ -577,7 +581,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15738</v>
+        <v>15685</v>
       </c>
     </row>
     <row r="14">
@@ -587,7 +591,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>48351</v>
+        <v>45687</v>
       </c>
     </row>
     <row r="15">
@@ -605,7 +609,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>9.27</v>
+        <v>8.35</v>
       </c>
     </row>
     <row r="17">
@@ -615,7 +619,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>9.210000000000001</v>
+        <v>8.31</v>
       </c>
     </row>
     <row r="18">
@@ -633,7 +637,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>5217242</v>
+        <v>5470820</v>
       </c>
     </row>
     <row r="20">
@@ -643,7 +647,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>5251692</v>
+        <v>5500281</v>
       </c>
     </row>
     <row r="21">
@@ -653,7 +657,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
     </row>
   </sheetData>
@@ -683,7 +687,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Dec. 28, 2019</t>
+          <t>Dec. 29, 2018</t>
         </is>
       </c>
     </row>
@@ -694,7 +698,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>91819</v>
+        <v>84310</v>
       </c>
     </row>
     <row r="3">
@@ -704,7 +708,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>56602</v>
+        <v>52279</v>
       </c>
     </row>
     <row r="4">
@@ -714,7 +718,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>35217</v>
+        <v>32031</v>
       </c>
     </row>
     <row r="5">
@@ -732,7 +736,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4451</v>
+        <v>3902</v>
       </c>
     </row>
     <row r="7">
@@ -742,7 +746,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5197</v>
+        <v>4783</v>
       </c>
     </row>
     <row r="8">
@@ -752,7 +756,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9648</v>
+        <v>8685</v>
       </c>
     </row>
     <row r="9">
@@ -762,7 +766,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>25569</v>
+        <v>23346</v>
       </c>
     </row>
     <row r="10">
@@ -772,7 +776,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>349</v>
+        <v>560</v>
       </c>
     </row>
     <row r="11">
@@ -782,7 +786,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>25918</v>
+        <v>23906</v>
       </c>
     </row>
     <row r="12">
@@ -792,7 +796,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3682</v>
+        <v>3941</v>
       </c>
     </row>
     <row r="13">
@@ -802,7 +806,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>22236</v>
+        <v>19965</v>
       </c>
     </row>
     <row r="14">
@@ -820,7 +824,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5.04</v>
+        <v>4.22</v>
       </c>
     </row>
     <row r="16">
@@ -830,7 +834,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4.99</v>
+        <v>4.18</v>
       </c>
     </row>
     <row r="17">
@@ -848,7 +852,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4415040</v>
+        <v>4735820</v>
       </c>
     </row>
     <row r="19">
@@ -858,7 +862,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4454604</v>
+        <v>4773252</v>
       </c>
     </row>
     <row r="20">
@@ -876,7 +880,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>79104</v>
+        <v>73435</v>
       </c>
     </row>
     <row r="22">
@@ -886,7 +890,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52075</v>
+        <v>48238</v>
       </c>
     </row>
     <row r="23">
@@ -904,7 +908,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>12715</v>
+        <v>10875</v>
       </c>
     </row>
     <row r="25">
@@ -914,7 +918,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4527</v>
+        <v>4041</v>
       </c>
     </row>
   </sheetData>
@@ -944,7 +948,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Mar. 28, 2020</t>
+          <t>Mar. 30, 2019</t>
         </is>
       </c>
     </row>
@@ -955,7 +959,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>58313</v>
+        <v>58015</v>
       </c>
     </row>
     <row r="3">
@@ -965,7 +969,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35943</v>
+        <v>36194</v>
       </c>
     </row>
     <row r="4">
@@ -975,7 +979,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22370</v>
+        <v>21821</v>
       </c>
     </row>
     <row r="5">
@@ -993,7 +997,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4565</v>
+        <v>3948</v>
       </c>
     </row>
     <row r="7">
@@ -1003,7 +1007,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4952</v>
+        <v>4458</v>
       </c>
     </row>
     <row r="8">
@@ -1013,7 +1017,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9517</v>
+        <v>8406</v>
       </c>
     </row>
     <row r="9">
@@ -1023,7 +1027,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>12853</v>
+        <v>13415</v>
       </c>
     </row>
     <row r="10">
@@ -1033,7 +1037,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>282</v>
+        <v>378</v>
       </c>
     </row>
     <row r="11">
@@ -1043,7 +1047,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>13135</v>
+        <v>13793</v>
       </c>
     </row>
     <row r="12">
@@ -1053,7 +1057,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1886</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="13">
@@ -1063,7 +1067,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>11249</v>
+        <v>11561</v>
       </c>
     </row>
     <row r="14">
@@ -1081,7 +1085,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.58</v>
+        <v>2.47</v>
       </c>
     </row>
     <row r="16">
@@ -1091,7 +1095,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2.55</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="17">
@@ -1109,7 +1113,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4360101</v>
+        <v>4674071</v>
       </c>
     </row>
     <row r="19">
@@ -1119,7 +1123,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4404691</v>
+        <v>4700646</v>
       </c>
     </row>
     <row r="20">
@@ -1137,7 +1141,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>44965</v>
+        <v>46565</v>
       </c>
     </row>
     <row r="22">
@@ -1147,7 +1151,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>31321</v>
+        <v>32047</v>
       </c>
     </row>
     <row r="23">
@@ -1165,7 +1169,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>13348</v>
+        <v>11450</v>
       </c>
     </row>
     <row r="25">
@@ -1175,7 +1179,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4622</v>
+        <v>4147</v>
       </c>
     </row>
   </sheetData>
@@ -1205,7 +1209,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Jun. 27, 2020</t>
+          <t>Jun. 29, 2019</t>
         </is>
       </c>
     </row>
@@ -1216,7 +1220,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>59685</v>
+        <v>53809</v>
       </c>
     </row>
     <row r="3">
@@ -1226,7 +1230,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>37005</v>
+        <v>33582</v>
       </c>
     </row>
     <row r="4">
@@ -1236,7 +1240,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22680</v>
+        <v>20227</v>
       </c>
     </row>
     <row r="5">
@@ -1254,7 +1258,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4758</v>
+        <v>4257</v>
       </c>
     </row>
     <row r="7">
@@ -1264,7 +1268,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4831</v>
+        <v>4426</v>
       </c>
     </row>
     <row r="8">
@@ -1274,7 +1278,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9589</v>
+        <v>8683</v>
       </c>
     </row>
     <row r="9">
@@ -1284,7 +1288,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>13091</v>
+        <v>11544</v>
       </c>
     </row>
     <row r="10">
@@ -1294,7 +1298,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>46</v>
+        <v>367</v>
       </c>
     </row>
     <row r="11">
@@ -1304,7 +1308,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>13137</v>
+        <v>11911</v>
       </c>
     </row>
     <row r="12">
@@ -1314,7 +1318,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1884</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="13">
@@ -1324,7 +1328,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>11253</v>
+        <v>10044</v>
       </c>
     </row>
     <row r="14">
@@ -1342,7 +1346,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.61</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="16">
@@ -1352,7 +1356,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2.58</v>
+        <v>2.18</v>
       </c>
     </row>
     <row r="17">
@@ -1370,7 +1374,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4312573</v>
+        <v>4570633</v>
       </c>
     </row>
     <row r="19">
@@ -1380,7 +1384,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4354788</v>
+        <v>4601380</v>
       </c>
     </row>
     <row r="20">
@@ -1398,7 +1402,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>46529</v>
+        <v>42354</v>
       </c>
     </row>
     <row r="22">
@@ -1408,7 +1412,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>32693</v>
+        <v>29473</v>
       </c>
     </row>
     <row r="23">
@@ -1426,7 +1430,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>13156</v>
+        <v>11455</v>
       </c>
     </row>
     <row r="25">
@@ -1436,7 +1440,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4312</v>
+        <v>4109</v>
       </c>
     </row>
   </sheetData>
@@ -1466,7 +1470,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Sep. 26, 2020</t>
+          <t>Sep. 28, 2019</t>
         </is>
       </c>
     </row>
@@ -1477,7 +1481,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>274515</v>
+        <v>260174</v>
       </c>
     </row>
     <row r="3">
@@ -1487,7 +1491,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>169559</v>
+        <v>161782</v>
       </c>
     </row>
     <row r="4">
@@ -1497,7 +1501,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>104956</v>
+        <v>98392</v>
       </c>
     </row>
     <row r="5">
@@ -1515,7 +1519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>18752</v>
+        <v>16217</v>
       </c>
     </row>
     <row r="7">
@@ -1525,7 +1529,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19916</v>
+        <v>18245</v>
       </c>
     </row>
     <row r="8">
@@ -1535,7 +1539,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>38668</v>
+        <v>34462</v>
       </c>
     </row>
     <row r="9">
@@ -1545,7 +1549,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>66288</v>
+        <v>63930</v>
       </c>
     </row>
     <row r="10">
@@ -1555,7 +1559,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>803</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="11">
@@ -1565,7 +1569,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>67091</v>
+        <v>65737</v>
       </c>
     </row>
     <row r="12">
@@ -1575,7 +1579,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9680</v>
+        <v>10481</v>
       </c>
     </row>
     <row r="13">
@@ -1585,7 +1589,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>57411</v>
+        <v>55256</v>
       </c>
     </row>
     <row r="14">
@@ -1603,7 +1607,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3.31</v>
+        <v>11.97</v>
       </c>
     </row>
     <row r="16">
@@ -1613,7 +1617,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3.28</v>
+        <v>11.89</v>
       </c>
     </row>
     <row r="17">
@@ -1631,7 +1635,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>17352119</v>
+        <v>4617834</v>
       </c>
     </row>
     <row r="19">
@@ -1641,7 +1645,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>17528214</v>
+        <v>4648913</v>
       </c>
     </row>
     <row r="20">
@@ -1659,7 +1663,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>220747</v>
+        <v>213883</v>
       </c>
     </row>
     <row r="22">
@@ -1669,7 +1673,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>151286</v>
+        <v>144996</v>
       </c>
     </row>
     <row r="23">
@@ -1687,7 +1691,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>53768</v>
+        <v>46291</v>
       </c>
     </row>
     <row r="25">
@@ -1697,7 +1701,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>18273</v>
+        <v>16786</v>
       </c>
     </row>
   </sheetData>
@@ -1727,7 +1731,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Dec. 26, 2020</t>
+          <t>Dec. 28, 2019</t>
         </is>
       </c>
     </row>
@@ -1738,7 +1742,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>111439</v>
+        <v>91819</v>
       </c>
     </row>
     <row r="3">
@@ -1748,7 +1752,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>67111</v>
+        <v>56602</v>
       </c>
     </row>
     <row r="4">
@@ -1758,7 +1762,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44328</v>
+        <v>35217</v>
       </c>
     </row>
     <row r="5">
@@ -1776,7 +1780,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5163</v>
+        <v>4451</v>
       </c>
     </row>
     <row r="7">
@@ -1786,7 +1790,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5631</v>
+        <v>5197</v>
       </c>
     </row>
     <row r="8">
@@ -1796,7 +1800,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10794</v>
+        <v>9648</v>
       </c>
     </row>
     <row r="9">
@@ -1806,7 +1810,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>33534</v>
+        <v>25569</v>
       </c>
     </row>
     <row r="10">
@@ -1816,7 +1820,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>45</v>
+        <v>349</v>
       </c>
     </row>
     <row r="11">
@@ -1826,7 +1830,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>33579</v>
+        <v>25918</v>
       </c>
     </row>
     <row r="12">
@@ -1836,7 +1840,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4824</v>
+        <v>3682</v>
       </c>
     </row>
     <row r="13">
@@ -1846,7 +1850,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>28755</v>
+        <v>22236</v>
       </c>
     </row>
     <row r="14">
@@ -1864,7 +1868,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.7</v>
+        <v>5.04</v>
       </c>
     </row>
     <row r="16">
@@ -1874,7 +1878,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.68</v>
+        <v>4.99</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1896,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>16935119</v>
+        <v>4415040</v>
       </c>
     </row>
     <row r="19">
@@ -1902,7 +1906,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>17113688</v>
+        <v>4454604</v>
       </c>
     </row>
     <row r="20">
@@ -1920,7 +1924,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>95678</v>
+        <v>79104</v>
       </c>
     </row>
     <row r="22">
@@ -1930,7 +1934,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>62130</v>
+        <v>52075</v>
       </c>
     </row>
     <row r="23">
@@ -1948,7 +1952,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>15761</v>
+        <v>12715</v>
       </c>
     </row>
     <row r="25">
@@ -1958,7 +1962,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4981</v>
+        <v>4527</v>
       </c>
     </row>
   </sheetData>
@@ -1988,7 +1992,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Mar. 27, 2021</t>
+          <t>Mar. 28, 2020</t>
         </is>
       </c>
     </row>
@@ -1999,7 +2003,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>89584</v>
+        <v>58313</v>
       </c>
     </row>
     <row r="3">
@@ -2009,7 +2013,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>51505</v>
+        <v>35943</v>
       </c>
     </row>
     <row r="4">
@@ -2019,7 +2023,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>38079</v>
+        <v>22370</v>
       </c>
     </row>
     <row r="5">
@@ -2037,7 +2041,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5262</v>
+        <v>4565</v>
       </c>
     </row>
     <row r="7">
@@ -2047,7 +2051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5314</v>
+        <v>4952</v>
       </c>
     </row>
     <row r="8">
@@ -2057,7 +2061,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10576</v>
+        <v>9517</v>
       </c>
     </row>
     <row r="9">
@@ -2067,7 +2071,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>27503</v>
+        <v>12853</v>
       </c>
     </row>
     <row r="10">
@@ -2077,7 +2081,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>508</v>
+        <v>282</v>
       </c>
     </row>
     <row r="11">
@@ -2087,7 +2091,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>28011</v>
+        <v>13135</v>
       </c>
     </row>
     <row r="12">
@@ -2097,7 +2101,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4381</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="13">
@@ -2107,7 +2111,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>23630</v>
+        <v>11249</v>
       </c>
     </row>
     <row r="14">
@@ -2125,7 +2129,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.41</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="16">
@@ -2135,7 +2139,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.4</v>
+        <v>2.55</v>
       </c>
     </row>
     <row r="17">
@@ -2153,7 +2157,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>16753476</v>
+        <v>4360101</v>
       </c>
     </row>
     <row r="19">
@@ -2163,7 +2167,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>16929157</v>
+        <v>4404691</v>
       </c>
     </row>
     <row r="20">
@@ -2181,7 +2185,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>72683</v>
+        <v>44965</v>
       </c>
     </row>
     <row r="22">
@@ -2191,7 +2195,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46447</v>
+        <v>31321</v>
       </c>
     </row>
     <row r="23">
@@ -2209,7 +2213,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>16901</v>
+        <v>13348</v>
       </c>
     </row>
     <row r="25">
@@ -2219,7 +2223,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>5058</v>
+        <v>4622</v>
       </c>
     </row>
   </sheetData>
@@ -2249,7 +2253,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Jun. 26, 2021</t>
+          <t>Jun. 27, 2020</t>
         </is>
       </c>
     </row>
@@ -2260,7 +2264,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>81434</v>
+        <v>59685</v>
       </c>
     </row>
     <row r="3">
@@ -2270,7 +2274,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>46179</v>
+        <v>37005</v>
       </c>
     </row>
     <row r="4">
@@ -2280,7 +2284,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>35255</v>
+        <v>22680</v>
       </c>
     </row>
     <row r="5">
@@ -2298,7 +2302,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5717</v>
+        <v>4758</v>
       </c>
     </row>
     <row r="7">
@@ -2308,7 +2312,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5412</v>
+        <v>4831</v>
       </c>
     </row>
     <row r="8">
@@ -2318,7 +2322,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11129</v>
+        <v>9589</v>
       </c>
     </row>
     <row r="9">
@@ -2328,7 +2332,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>24126</v>
+        <v>13091</v>
       </c>
     </row>
     <row r="10">
@@ -2338,7 +2342,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>243</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11">
@@ -2348,7 +2352,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>24369</v>
+        <v>13137</v>
       </c>
     </row>
     <row r="12">
@@ -2358,7 +2362,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2625</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="13">
@@ -2368,7 +2372,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>21744</v>
+        <v>11253</v>
       </c>
     </row>
     <row r="14">
@@ -2386,7 +2390,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.31</v>
+        <v>2.61</v>
       </c>
     </row>
     <row r="16">
@@ -2396,7 +2400,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.3</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="17">
@@ -2414,7 +2418,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>16629371</v>
+        <v>4312573</v>
       </c>
     </row>
     <row r="19">
@@ -2424,7 +2428,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>16781735</v>
+        <v>4354788</v>
       </c>
     </row>
     <row r="20">
@@ -2442,7 +2446,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>63948</v>
+        <v>46529</v>
       </c>
     </row>
     <row r="22">
@@ -2452,7 +2456,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>40899</v>
+        <v>32693</v>
       </c>
     </row>
     <row r="23">
@@ -2470,7 +2474,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>17486</v>
+        <v>13156</v>
       </c>
     </row>
     <row r="25">
@@ -2480,7 +2484,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>5280</v>
+        <v>4312</v>
       </c>
     </row>
   </sheetData>
@@ -2510,7 +2514,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Sep. 25, 2021</t>
+          <t>Sep. 26, 2020</t>
         </is>
       </c>
     </row>
@@ -2521,7 +2525,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>365817</v>
+        <v>274515</v>
       </c>
     </row>
     <row r="3">
@@ -2531,7 +2535,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>212981</v>
+        <v>169559</v>
       </c>
     </row>
     <row r="4">
@@ -2541,7 +2545,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>152836</v>
+        <v>104956</v>
       </c>
     </row>
     <row r="5">
@@ -2559,7 +2563,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21914</v>
+        <v>18752</v>
       </c>
     </row>
     <row r="7">
@@ -2569,7 +2573,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21973</v>
+        <v>19916</v>
       </c>
     </row>
     <row r="8">
@@ -2579,7 +2583,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>43887</v>
+        <v>38668</v>
       </c>
     </row>
     <row r="9">
@@ -2589,7 +2593,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>108949</v>
+        <v>66288</v>
       </c>
     </row>
     <row r="10">
@@ -2599,7 +2603,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>258</v>
+        <v>803</v>
       </c>
     </row>
     <row r="11">
@@ -2609,7 +2613,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>109207</v>
+        <v>67091</v>
       </c>
     </row>
     <row r="12">
@@ -2619,7 +2623,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>14527</v>
+        <v>9680</v>
       </c>
     </row>
     <row r="13">
@@ -2629,7 +2633,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>94680</v>
+        <v>57411</v>
       </c>
     </row>
     <row r="14">
@@ -2647,7 +2651,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5.67</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="16">
@@ -2657,7 +2661,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5.61</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="17">
@@ -2675,7 +2679,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>16701272</v>
+        <v>17352119</v>
       </c>
     </row>
     <row r="19">
@@ -2685,7 +2689,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>16864919</v>
+        <v>17528214</v>
       </c>
     </row>
     <row r="20">
@@ -2703,7 +2707,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>297392</v>
+        <v>220747</v>
       </c>
     </row>
     <row r="22">
@@ -2713,7 +2717,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>192266</v>
+        <v>151286</v>
       </c>
     </row>
     <row r="23">
@@ -2731,7 +2735,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>68425</v>
+        <v>53768</v>
       </c>
     </row>
     <row r="25">
@@ -2741,7 +2745,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>20715</v>
+        <v>18273</v>
       </c>
     </row>
   </sheetData>
@@ -2771,7 +2775,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Dec. 25, 2021</t>
+          <t>Dec. 26, 2020</t>
         </is>
       </c>
     </row>
@@ -2782,7 +2786,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>123945</v>
+        <v>111439</v>
       </c>
     </row>
     <row r="3">
@@ -2792,7 +2796,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>69702</v>
+        <v>67111</v>
       </c>
     </row>
     <row r="4">
@@ -2802,7 +2806,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>54243</v>
+        <v>44328</v>
       </c>
     </row>
     <row r="5">
@@ -2820,7 +2824,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6306</v>
+        <v>5163</v>
       </c>
     </row>
     <row r="7">
@@ -2830,7 +2834,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6449</v>
+        <v>5631</v>
       </c>
     </row>
     <row r="8">
@@ -2840,7 +2844,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12755</v>
+        <v>10794</v>
       </c>
     </row>
     <row r="9">
@@ -2850,7 +2854,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>41488</v>
+        <v>33534</v>
       </c>
     </row>
     <row r="10">
@@ -2860,7 +2864,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-247</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11">
@@ -2870,7 +2874,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>41241</v>
+        <v>33579</v>
       </c>
     </row>
     <row r="12">
@@ -2880,7 +2884,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6611</v>
+        <v>4824</v>
       </c>
     </row>
     <row r="13">
@@ -2890,13 +2894,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>34630</v>
+        <v>28755</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Earnings Per Share [Abstract]</t>
+          <t>Earnings per share:</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
@@ -2908,7 +2912,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.11</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="16">
@@ -2918,7 +2922,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2.1</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="17">
@@ -2936,7 +2940,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>16391724</v>
+        <v>16935119</v>
       </c>
     </row>
     <row r="19">
@@ -2946,7 +2950,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>16519291</v>
+        <v>17113688</v>
       </c>
     </row>
     <row r="20">
@@ -2964,7 +2968,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>104429</v>
+        <v>95678</v>
       </c>
     </row>
     <row r="22">
@@ -2974,7 +2978,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>64309</v>
+        <v>62130</v>
       </c>
     </row>
     <row r="23">
@@ -2992,7 +2996,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>19516</v>
+        <v>15761</v>
       </c>
     </row>
     <row r="25">
@@ -3002,7 +3006,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>5393</v>
+        <v>4981</v>
       </c>
     </row>
   </sheetData>
@@ -3032,7 +3036,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Mar. 26, 2022</t>
+          <t>Mar. 27, 2021</t>
         </is>
       </c>
     </row>
@@ -3043,7 +3047,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>97278</v>
+        <v>89584</v>
       </c>
     </row>
     <row r="3">
@@ -3053,7 +3057,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>54719</v>
+        <v>51505</v>
       </c>
     </row>
     <row r="4">
@@ -3063,7 +3067,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>42559</v>
+        <v>38079</v>
       </c>
     </row>
     <row r="5">
@@ -3081,7 +3085,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6387</v>
+        <v>5262</v>
       </c>
     </row>
     <row r="7">
@@ -3091,7 +3095,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6193</v>
+        <v>5314</v>
       </c>
     </row>
     <row r="8">
@@ -3101,7 +3105,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12580</v>
+        <v>10576</v>
       </c>
     </row>
     <row r="9">
@@ -3111,7 +3115,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>29979</v>
+        <v>27503</v>
       </c>
     </row>
     <row r="10">
@@ -3121,7 +3125,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>160</v>
+        <v>508</v>
       </c>
     </row>
     <row r="11">
@@ -3131,7 +3135,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>30139</v>
+        <v>28011</v>
       </c>
     </row>
     <row r="12">
@@ -3141,7 +3145,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5129</v>
+        <v>4381</v>
       </c>
     </row>
     <row r="13">
@@ -3151,7 +3155,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>25010</v>
+        <v>23630</v>
       </c>
     </row>
     <row r="14">
@@ -3169,7 +3173,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.54</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="16">
@@ -3179,7 +3183,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.52</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="17">
@@ -3197,7 +3201,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>16278802</v>
+        <v>16753476</v>
       </c>
     </row>
     <row r="19">
@@ -3207,7 +3211,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>16403316</v>
+        <v>16929157</v>
       </c>
     </row>
     <row r="20">
@@ -3225,7 +3229,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>77457</v>
+        <v>72683</v>
       </c>
     </row>
     <row r="22">
@@ -3235,7 +3239,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>49290</v>
+        <v>46447</v>
       </c>
     </row>
     <row r="23">
@@ -3253,7 +3257,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>19821</v>
+        <v>16901</v>
       </c>
     </row>
     <row r="25">
@@ -3263,7 +3267,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>5429</v>
+        <v>5058</v>
       </c>
     </row>
   </sheetData>
@@ -3293,7 +3297,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Dec. 30, 2017</t>
+          <t>Dec. 31, 2016</t>
         </is>
       </c>
     </row>
@@ -3312,7 +3316,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>88293</v>
+        <v>78351</v>
       </c>
     </row>
     <row r="4">
@@ -3322,7 +3326,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>54381</v>
+        <v>48175</v>
       </c>
     </row>
     <row r="5">
@@ -3332,7 +3336,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>33912</v>
+        <v>30176</v>
       </c>
     </row>
     <row r="6">
@@ -3350,7 +3354,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3407</v>
+        <v>2871</v>
       </c>
     </row>
     <row r="8">
@@ -3360,7 +3364,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4231</v>
+        <v>3946</v>
       </c>
     </row>
     <row r="9">
@@ -3370,7 +3374,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7638</v>
+        <v>6817</v>
       </c>
     </row>
     <row r="10">
@@ -3380,7 +3384,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>26274</v>
+        <v>23359</v>
       </c>
     </row>
     <row r="11">
@@ -3390,7 +3394,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>756</v>
+        <v>821</v>
       </c>
     </row>
     <row r="12">
@@ -3400,7 +3404,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>27030</v>
+        <v>24180</v>
       </c>
     </row>
     <row r="13">
@@ -3410,7 +3414,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6965</v>
+        <v>6289</v>
       </c>
     </row>
     <row r="14">
@@ -3420,7 +3424,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>20065</v>
+        <v>17891</v>
       </c>
     </row>
     <row r="15">
@@ -3438,7 +3442,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3.92</v>
+        <v>3.38</v>
       </c>
     </row>
     <row r="17">
@@ -3448,7 +3452,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3.89</v>
+        <v>3.36</v>
       </c>
     </row>
     <row r="18">
@@ -3466,7 +3470,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>5112877</v>
+        <v>5298661</v>
       </c>
     </row>
     <row r="20">
@@ -3476,7 +3480,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>5157787</v>
+        <v>5327995</v>
       </c>
     </row>
     <row r="21">
@@ -3486,7 +3490,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.63</v>
+        <v>0.57</v>
       </c>
     </row>
   </sheetData>
@@ -3516,6 +3520,1050 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Jun. 26, 2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Net sales</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>81434</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Cost of sales</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>46179</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Gross margin</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>35255</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Operating expenses:</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Research and development</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5717</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Selling, general and administrative</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>5412</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Total operating expenses</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>11129</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Operating income</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>24126</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Other income/(expense), net</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Income before provision for income taxes</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>24369</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Provision for income taxes</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2625</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Net income</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>21744</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Earnings per share:</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Basic (in dollars per share)</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Diluted (in dollars per share)</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Shares used in computing earnings per share:</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Basic (in shares)</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>16629371</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Diluted (in shares)</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>16781735</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Products</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Net sales</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>63948</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Cost of sales</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>40899</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Net sales</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>17486</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Cost of sales</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>5280</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>label</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Sep. 25, 2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Net sales</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>365817</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Cost of sales</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>212981</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Gross margin</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>152836</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Operating expenses:</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Research and development</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>21914</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Selling, general and administrative</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>21973</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Total operating expenses</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>43887</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Operating income</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>108949</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Other income/(expense), net</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Income before provision for income taxes</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>109207</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Provision for income taxes</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>14527</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Net income</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>94680</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Earnings per share:</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Basic (in dollars per share)</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>5.67</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Diluted (in dollars per share)</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>5.61</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Shares used in computing earnings per share:</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Basic (in shares)</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>16701272</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Diluted (in shares)</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>16864919</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Products</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Net sales</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>297392</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Cost of sales</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>192266</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Net sales</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>68425</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Cost of sales</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>20715</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>label</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Dec. 25, 2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Net sales</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>123945</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Cost of sales</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>69702</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Gross margin</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>54243</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Operating expenses:</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Research and development</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>6306</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Selling, general and administrative</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6449</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Total operating expenses</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>12755</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Operating income</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>41488</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Other income/(expense), net</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-247</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Income before provision for income taxes</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>41241</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Provision for income taxes</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>6611</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Net income</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>34630</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Earnings Per Share [Abstract]</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Basic (in dollars per share)</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>2.11</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Diluted (in dollars per share)</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Shares used in computing earnings per share:</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Basic (in shares)</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>16391724</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Diluted (in shares)</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>16519291</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Products</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Net sales</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>104429</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Cost of sales</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>64309</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Net sales</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>19516</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Cost of sales</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>5393</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>label</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Mar. 26, 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Net sales</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>97278</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Cost of sales</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>54719</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Gross margin</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>42559</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Operating expenses:</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Research and development</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>6387</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Selling, general and administrative</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6193</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Total operating expenses</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>12580</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Operating income</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>29979</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Other income/(expense), net</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Income before provision for income taxes</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>30139</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Provision for income taxes</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>5129</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Net income</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>25010</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Earnings per share:</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Basic (in dollars per share)</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Diluted (in dollars per share)</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Shares used in computing earnings per share:</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Basic (in shares)</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>16278802</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Diluted (in shares)</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>16403316</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Products</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Net sales</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>77457</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Cost of sales</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>49290</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Net sales</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>19821</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Cost of sales</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>5429</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>label</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Jun. 25, 2022</t>
         </is>
       </c>
@@ -3797,7 +4845,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Mar. 31, 2018</t>
+          <t>Apr. 01, 2017</t>
         </is>
       </c>
     </row>
@@ -3816,7 +4864,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>61137</v>
+        <v>52896</v>
       </c>
     </row>
     <row r="4">
@@ -3826,7 +4874,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>37715</v>
+        <v>32305</v>
       </c>
     </row>
     <row r="5">
@@ -3836,7 +4884,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>23422</v>
+        <v>20591</v>
       </c>
     </row>
     <row r="6">
@@ -3854,7 +4902,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3378</v>
+        <v>2776</v>
       </c>
     </row>
     <row r="8">
@@ -3864,7 +4912,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4150</v>
+        <v>3718</v>
       </c>
     </row>
     <row r="9">
@@ -3874,7 +4922,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7528</v>
+        <v>6494</v>
       </c>
     </row>
     <row r="10">
@@ -3884,7 +4932,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15894</v>
+        <v>14097</v>
       </c>
     </row>
     <row r="11">
@@ -3894,7 +4942,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>274</v>
+        <v>587</v>
       </c>
     </row>
     <row r="12">
@@ -3904,7 +4952,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>16168</v>
+        <v>14684</v>
       </c>
     </row>
     <row r="13">
@@ -3914,7 +4962,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2346</v>
+        <v>3655</v>
       </c>
     </row>
     <row r="14">
@@ -3924,7 +4972,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>13822</v>
+        <v>11029</v>
       </c>
     </row>
     <row r="15">
@@ -3942,7 +4990,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2.75</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="17">
@@ -3952,7 +5000,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.73</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="18">
@@ -3970,7 +5018,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>5024877</v>
+        <v>5225791</v>
       </c>
     </row>
     <row r="20">
@@ -3980,7 +5028,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>5068493</v>
+        <v>5261688</v>
       </c>
     </row>
     <row r="21">
@@ -3990,7 +5038,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.63</v>
+        <v>0.57</v>
       </c>
     </row>
   </sheetData>
@@ -4020,7 +5068,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Jun. 30, 2018</t>
+          <t>Jul. 01, 2017</t>
         </is>
       </c>
     </row>
@@ -4039,7 +5087,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>53265</v>
+        <v>45408</v>
       </c>
     </row>
     <row r="4">
@@ -4049,7 +5097,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>32844</v>
+        <v>27920</v>
       </c>
     </row>
     <row r="5">
@@ -4059,7 +5107,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>20421</v>
+        <v>17488</v>
       </c>
     </row>
     <row r="6">
@@ -4077,7 +5125,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3701</v>
+        <v>2937</v>
       </c>
     </row>
     <row r="8">
@@ -4087,7 +5135,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4108</v>
+        <v>3783</v>
       </c>
     </row>
     <row r="9">
@@ -4097,7 +5145,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7809</v>
+        <v>6720</v>
       </c>
     </row>
     <row r="10">
@@ -4107,7 +5155,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12612</v>
+        <v>10768</v>
       </c>
     </row>
     <row r="11">
@@ -4117,7 +5165,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>672</v>
+        <v>540</v>
       </c>
     </row>
     <row r="12">
@@ -4127,7 +5175,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>13284</v>
+        <v>11308</v>
       </c>
     </row>
     <row r="13">
@@ -4137,7 +5185,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1765</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="14">
@@ -4147,7 +5195,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>11519</v>
+        <v>8717</v>
       </c>
     </row>
     <row r="15">
@@ -4165,7 +5213,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2.36</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="17">
@@ -4175,7 +5223,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.34</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="18">
@@ -4193,7 +5241,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4882167</v>
+        <v>5195088</v>
       </c>
     </row>
     <row r="20">
@@ -4203,7 +5251,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4926609</v>
+        <v>5233499</v>
       </c>
     </row>
     <row r="21">
@@ -4213,7 +5261,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.73</v>
+        <v>0.63</v>
       </c>
     </row>
   </sheetData>
@@ -4222,6 +5270,898 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>label</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Sep. 30, 2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Income Statement [Abstract]</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Net sales</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>229234</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Cost of sales</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>141048</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Gross margin</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>88186</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Operating expenses:</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Research and development</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>11581</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Selling, general and administrative</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>15261</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Total operating expenses</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>26842</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Operating income</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>61344</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Other income/(expense), net</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2745</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Income before provision for income taxes</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>64089</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Provision for income taxes</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>15738</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Net income</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>48351</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Earnings per share:</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Basic (in dollars per share)</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>9.27</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Diluted (in dollars per share)</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>9.210000000000001</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Shares used in computing earnings per share:</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Basic (in shares)</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>5217242</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Diluted (in shares)</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>5251692</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Cash dividends declared per share (in dollars per share)</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>2.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>label</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Dec. 30, 2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Income Statement [Abstract]</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Net sales</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>88293</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Cost of sales</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>54381</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Gross margin</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>33912</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Operating expenses:</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Research and development</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>3407</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Selling, general and administrative</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>4231</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Total operating expenses</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>7638</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Operating income</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>26274</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Other income/(expense), net</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Income before provision for income taxes</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>27030</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Provision for income taxes</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>6965</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Net income</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>20065</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Earnings per share:</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Basic (in dollars per share)</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>3.92</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Diluted (in dollars per share)</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>3.89</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Shares used in computing earnings per share:</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Basic (in shares)</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>5112877</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Diluted (in shares)</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>5157787</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Cash dividends declared per share (in dollars per share)</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>label</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Mar. 31, 2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Income Statement [Abstract]</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Net sales</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>61137</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Cost of sales</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>37715</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Gross margin</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>23422</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Operating expenses:</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Research and development</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>3378</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Selling, general and administrative</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>4150</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Total operating expenses</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>7528</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Operating income</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>15894</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Other income/(expense), net</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Income before provision for income taxes</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>16168</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Provision for income taxes</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>2346</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Net income</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>13822</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Earnings per share:</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Basic (in dollars per share)</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Diluted (in dollars per share)</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>2.73</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Shares used in computing earnings per share:</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Basic (in shares)</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>5024877</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Diluted (in shares)</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>5068493</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Cash dividends declared per share (in dollars per share)</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>label</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Jun. 30, 2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Income Statement [Abstract]</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Net sales</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>53265</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Cost of sales</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>32844</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Gross margin</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>20421</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Operating expenses:</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Research and development</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>3701</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Selling, general and administrative</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>4108</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Total operating expenses</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>7809</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Operating income</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>12612</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Other income/(expense), net</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Income before provision for income taxes</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>13284</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Provision for income taxes</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Net income</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>11519</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Earnings per share:</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Basic (in dollars per share)</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>2.36</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Diluted (in dollars per share)</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Shares used in computing earnings per share:</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Basic (in shares)</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>4882167</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Diluted (in shares)</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>4926609</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Cash dividends declared per share (in dollars per share)</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4432,1048 +6372,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>label</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Dec. 29, 2018</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Net sales</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>84310</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Cost of sales</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>52279</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Gross margin</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>32031</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Operating expenses:</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Research and development</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>3902</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Selling, general and administrative</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>4783</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Total operating expenses</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>8685</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Operating income</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>23346</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Other income/(expense), net</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Income before provision for income taxes</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>23906</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Provision for income taxes</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>3941</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Net income</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>19965</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Earnings per share:</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Basic (in dollars per share)</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>4.22</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Diluted (in dollars per share)</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>4.18</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Shares used in computing earnings per share:</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Basic (in shares)</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>4735820</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Diluted (in shares)</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>4773252</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Products</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Net sales</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>73435</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Cost of sales</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>48238</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Services</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Net sales</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>10875</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Cost of sales</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>4041</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>label</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Mar. 30, 2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Net sales</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>58015</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Cost of sales</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>36194</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Gross margin</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>21821</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Operating expenses:</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Research and development</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>3948</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Selling, general and administrative</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>4458</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Total operating expenses</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>8406</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Operating income</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>13415</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Other income/(expense), net</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Income before provision for income taxes</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>13793</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Provision for income taxes</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>2232</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Net income</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>11561</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Earnings per share:</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Basic (in dollars per share)</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>2.47</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Diluted (in dollars per share)</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>2.46</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Shares used in computing earnings per share:</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Basic (in shares)</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>4674071</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Diluted (in shares)</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>4700646</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Products</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Net sales</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>46565</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Cost of sales</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>32047</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Services</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Net sales</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>11450</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Cost of sales</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>4147</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>label</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Jun. 29, 2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Net sales</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>53809</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Cost of sales</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>33582</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Gross margin</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>20227</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Operating expenses:</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Research and development</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>4257</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Selling, general and administrative</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>4426</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Total operating expenses</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>8683</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Operating income</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>11544</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Other income/(expense), net</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Income before provision for income taxes</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>11911</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Provision for income taxes</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Net income</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>10044</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Earnings per share:</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Basic (in dollars per share)</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>2.2</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Diluted (in dollars per share)</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>2.18</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Shares used in computing earnings per share:</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Basic (in shares)</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>4570633</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Diluted (in shares)</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>4601380</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Products</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Net sales</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>42354</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Cost of sales</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>29473</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Services</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Net sales</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>11455</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Cost of sales</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>4109</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>label</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Sep. 28, 2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Net sales</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>260174</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Cost of sales</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>161782</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Gross margin</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>98392</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Operating expenses:</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Research and development</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>16217</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Selling, general and administrative</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>18245</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Total operating expenses</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>34462</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Operating income</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>63930</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Other income/(expense), net</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1807</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Income before provision for income taxes</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>65737</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Provision for income taxes</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>10481</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Net income</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>55256</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Earnings per share:</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Basic (in dollars per share)</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>11.97</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Diluted (in dollars per share)</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>11.89</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Shares used in computing earnings per share:</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Basic (in shares)</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>4617834</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Diluted (in shares)</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>4648913</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Products</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Net sales</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>213883</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Cost of sales</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>144996</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Services</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Net sales</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>46291</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Cost of sales</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>16786</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>